--- a/Weekly_Logs/2019.04.11 Katia WeeklyLog.xlsx
+++ b/Weekly_Logs/2019.04.11 Katia WeeklyLog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katiawilliams/Desktop/Caravan/Weekly Logs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katiawilliams/Desktop/Caravan/GRPP/Weekly_Logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{776656BE-6798-F547-B35A-54D83F8551CF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE017B0-B579-7141-BA3A-20CADBE0B77E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14740" yWindow="460" windowWidth="13880" windowHeight="15940" xr2:uid="{533873AE-7DA9-3449-9FC5-3975301CCF7D}"/>
+    <workbookView xWindow="14920" yWindow="460" windowWidth="13880" windowHeight="15940" xr2:uid="{533873AE-7DA9-3449-9FC5-3975301CCF7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="124">
   <si>
     <t>Please document your key activities/successes and challenges. If you want to write a longer entry you can, but all that is required is a brief summary of what you worked on, how many hours you spent on tasks and assignments that week and what assistance you need. Complete and upload your weekly log every week by Thursday COB</t>
   </si>
@@ -318,6 +318,90 @@
   </si>
   <si>
     <t>Final Presentation</t>
+  </si>
+  <si>
+    <t>Uploading files to Github</t>
+  </si>
+  <si>
+    <t>Some research on data.gov lead me to explore the SVI, or social vulnerability index, which links very direct;y to SDG 11. Endeavor began as a job/networking search, which became a search for another data related subcomponent of this project.</t>
+  </si>
+  <si>
+    <t>SVI</t>
+  </si>
+  <si>
+    <t>Networking, looking into suggested resources</t>
+  </si>
+  <si>
+    <t>At our final presentation I got some good advice about what to look into regarding a future job. Began to sift through that list! Checked out OpenOakland and DataKind</t>
+  </si>
+  <si>
+    <t>Talk with Mike Yeaton re PowerBI and data at nonprofits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some technical research re powerBI </t>
+  </si>
+  <si>
+    <t>Need Windows</t>
+  </si>
+  <si>
+    <t>Further networking!</t>
+  </si>
+  <si>
+    <t>Seriously, such an enormous resource. I am so grateful to have met Mike! He invited me to be part of the powerBI group!! He is seriously pioneering the intersection that I am passionate about</t>
+  </si>
+  <si>
+    <t>Sort of a spin off of the above, some emailing and linkedin things</t>
+  </si>
+  <si>
+    <t>Spreadsheet updating</t>
+  </si>
+  <si>
+    <t>Helped signify which entires are statements and which are projects, to make the next intern's place to pick up easier</t>
+  </si>
+  <si>
+    <t>Reflections</t>
+  </si>
+  <si>
+    <t>Compiled this sheet's information into some paragraph reflecctions, requirement for my internship sponsorship with Cal</t>
+  </si>
+  <si>
+    <t>Talking with Neetu about Power BI project, her background, possible summer TechSoup Internship</t>
+  </si>
+  <si>
+    <t>Such a good contact also! Neetu and Mike are onto the types of things I have been DREAMING about!</t>
+  </si>
+  <si>
+    <t>Reflections, continued</t>
+  </si>
+  <si>
+    <t>Nten meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Went with Neetu (from TechSoup Marketing) to an Nten meeting on Data analysis at nonprofits. </t>
+  </si>
+  <si>
+    <t>Neetu is great so I'm glad I got to pick her brain a bit more about her and Mike's project. Also met other people in the industry trying to get some data analysis going on. I can't believe these people meet once a month!</t>
+  </si>
+  <si>
+    <t>TechSoup Presentation</t>
+  </si>
+  <si>
+    <t>Presentation to Donor Partnerships group</t>
+  </si>
+  <si>
+    <t>I think it went well :) Got some good cosntructive criticism, and also some really good encouragement about how the project has gone thus far. Actually, it's now a bit of a challenge to let go of things and let someone else's creative vision take over. I have a lot of answers to questions that I feel like may come up and I want to setup effective answers to them all! At this point it's a question of feasibility and whether something is wprth setting up or just letting the next intern figure things out (or change things!)</t>
+  </si>
+  <si>
+    <t>Meeting Part 2 with Neetu and Mike</t>
+  </si>
+  <si>
+    <t>Follow up with people from Tuesday Techsoup Meeting</t>
+  </si>
+  <si>
+    <t>Learning more about the project they want to do through TechSoup's value added service system, providing nonprofits with elementary dashboards for their data</t>
+  </si>
+  <si>
+    <t>An incredibly exciting project, I'm so glad to have joined!</t>
   </si>
 </sst>
 </file>
@@ -362,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -375,6 +459,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582F6C8C-943B-4645-A5C8-14F162CC0638}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="D57" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1245,12 +1330,181 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B49" s="1">
         <v>3</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="8">
+        <v>43570</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="B52" s="1">
+        <v>2</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="B58" s="1">
+        <v>2</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>43576</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="B60" s="1">
+        <v>2</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B61" s="1">
+        <v>2</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="B62" s="1">
+        <v>2</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="B63" s="1">
+        <v>2</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>43583</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="B65" s="1">
+        <v>1</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
